--- a/natmiOut/OldD4/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Hsp90aa1-Fgfr3.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>84.46846681086539</v>
+        <v>94.45181500000001</v>
       </c>
       <c r="H2">
-        <v>84.46846681086539</v>
+        <v>283.355445</v>
       </c>
       <c r="I2">
-        <v>0.1435259267579395</v>
+        <v>0.1457155743604623</v>
       </c>
       <c r="J2">
-        <v>0.1435259267579395</v>
+        <v>0.1590548236774281</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.37353053500684</v>
+        <v>5.495057333333333</v>
       </c>
       <c r="N2">
-        <v>5.37353053500684</v>
+        <v>16.485172</v>
       </c>
       <c r="O2">
-        <v>0.8313560794454259</v>
+        <v>0.8161989011161211</v>
       </c>
       <c r="P2">
-        <v>0.8313560794454259</v>
+        <v>0.8403205285996808</v>
       </c>
       <c r="Q2">
-        <v>453.893885653397</v>
+        <v>519.0181386623933</v>
       </c>
       <c r="R2">
-        <v>453.893885653397</v>
+        <v>4671.16324796154</v>
       </c>
       <c r="S2">
-        <v>0.1193211517682519</v>
+        <v>0.1189328916685138</v>
       </c>
       <c r="T2">
-        <v>0.1193211517682519</v>
+        <v>0.1336570335089454</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>84.46846681086539</v>
+        <v>94.45181500000001</v>
       </c>
       <c r="H3">
-        <v>84.46846681086539</v>
+        <v>283.355445</v>
       </c>
       <c r="I3">
-        <v>0.1435259267579395</v>
+        <v>0.1457155743604623</v>
       </c>
       <c r="J3">
-        <v>0.1435259267579395</v>
+        <v>0.1590548236774281</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.520950252734417</v>
+        <v>0.657666</v>
       </c>
       <c r="N3">
-        <v>0.520950252734417</v>
+        <v>1.972998</v>
       </c>
       <c r="O3">
-        <v>0.08059787822510947</v>
+        <v>0.09768528951377062</v>
       </c>
       <c r="P3">
-        <v>0.08059787822510947</v>
+        <v>0.1005722428790014</v>
       </c>
       <c r="Q3">
-        <v>44.00386913320904</v>
+        <v>62.11774736379</v>
       </c>
       <c r="R3">
-        <v>44.00386913320904</v>
+        <v>559.0597262741101</v>
       </c>
       <c r="S3">
-        <v>0.01156788516698239</v>
+        <v>0.01423426806806713</v>
       </c>
       <c r="T3">
-        <v>0.01156788516698239</v>
+        <v>0.01599650035796304</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>84.46846681086539</v>
+        <v>94.45181500000001</v>
       </c>
       <c r="H4">
-        <v>84.46846681086539</v>
+        <v>283.355445</v>
       </c>
       <c r="I4">
-        <v>0.1435259267579395</v>
+        <v>0.1457155743604623</v>
       </c>
       <c r="J4">
-        <v>0.1435259267579395</v>
+        <v>0.1590548236774281</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5690920035846579</v>
+        <v>0.5797745</v>
       </c>
       <c r="N4">
-        <v>0.5690920035846579</v>
+        <v>1.159549</v>
       </c>
       <c r="O4">
-        <v>0.08804604232946472</v>
+        <v>0.08611580937010824</v>
       </c>
       <c r="P4">
-        <v>0.08804604232946472</v>
+        <v>0.0591072285213179</v>
       </c>
       <c r="Q4">
-        <v>48.07032901711957</v>
+        <v>54.7607538157175</v>
       </c>
       <c r="R4">
-        <v>48.07032901711957</v>
+        <v>328.564522894305</v>
       </c>
       <c r="S4">
-        <v>0.01263688982270519</v>
+        <v>0.01254841462388141</v>
       </c>
       <c r="T4">
-        <v>0.01263688982270519</v>
+        <v>0.009401289810519667</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>115.617517277138</v>
+        <v>125.4169656666667</v>
       </c>
       <c r="H5">
-        <v>115.617517277138</v>
+        <v>376.250897</v>
       </c>
       <c r="I5">
-        <v>0.1964533268232443</v>
+        <v>0.1934870726059072</v>
       </c>
       <c r="J5">
-        <v>0.1964533268232443</v>
+        <v>0.2111994709712006</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.37353053500684</v>
+        <v>5.495057333333333</v>
       </c>
       <c r="N5">
-        <v>5.37353053500684</v>
+        <v>16.485172</v>
       </c>
       <c r="O5">
-        <v>0.8313560794454259</v>
+        <v>0.8161989011161211</v>
       </c>
       <c r="P5">
-        <v>0.8313560794454259</v>
+        <v>0.8403205285996808</v>
       </c>
       <c r="Q5">
-        <v>621.274259470382</v>
+        <v>689.1734169110315</v>
       </c>
       <c r="R5">
-        <v>621.274259470382</v>
+        <v>6202.560752199283</v>
       </c>
       <c r="S5">
-        <v>0.1633226675817833</v>
+        <v>0.1579239360411166</v>
       </c>
       <c r="T5">
-        <v>0.1633226675817833</v>
+        <v>0.1774752510864923</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>115.617517277138</v>
+        <v>125.4169656666667</v>
       </c>
       <c r="H6">
-        <v>115.617517277138</v>
+        <v>376.250897</v>
       </c>
       <c r="I6">
-        <v>0.1964533268232443</v>
+        <v>0.1934870726059072</v>
       </c>
       <c r="J6">
-        <v>0.1964533268232443</v>
+        <v>0.2111994709712006</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.520950252734417</v>
+        <v>0.657666</v>
       </c>
       <c r="N6">
-        <v>0.520950252734417</v>
+        <v>1.972998</v>
       </c>
       <c r="O6">
-        <v>0.08059787822510947</v>
+        <v>0.09768528951377062</v>
       </c>
       <c r="P6">
-        <v>0.08059787822510947</v>
+        <v>0.1005722428790014</v>
       </c>
       <c r="Q6">
-        <v>60.23097484605086</v>
+        <v>82.482474142134</v>
       </c>
       <c r="R6">
-        <v>60.23097484605086</v>
+        <v>742.342267279206</v>
       </c>
       <c r="S6">
-        <v>0.01583372131221748</v>
+        <v>0.01890084070468</v>
       </c>
       <c r="T6">
-        <v>0.01583372131221748</v>
+        <v>0.0212408044904322</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>115.617517277138</v>
+        <v>125.4169656666667</v>
       </c>
       <c r="H7">
-        <v>115.617517277138</v>
+        <v>376.250897</v>
       </c>
       <c r="I7">
-        <v>0.1964533268232443</v>
+        <v>0.1934870726059072</v>
       </c>
       <c r="J7">
-        <v>0.1964533268232443</v>
+        <v>0.2111994709712006</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5690920035846579</v>
+        <v>0.5797745</v>
       </c>
       <c r="N7">
-        <v>0.5690920035846579</v>
+        <v>1.159549</v>
       </c>
       <c r="O7">
-        <v>0.08804604232946472</v>
+        <v>0.08611580937010824</v>
       </c>
       <c r="P7">
-        <v>0.08804604232946472</v>
+        <v>0.0591072285213179</v>
       </c>
       <c r="Q7">
-        <v>65.79700455673027</v>
+        <v>72.71355856090884</v>
       </c>
       <c r="R7">
-        <v>65.79700455673027</v>
+        <v>436.281351365453</v>
       </c>
       <c r="S7">
-        <v>0.01729693792924354</v>
+        <v>0.0166622958601106</v>
       </c>
       <c r="T7">
-        <v>0.01729693792924354</v>
+        <v>0.0124834153942762</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>103.615423604238</v>
+        <v>129.124439</v>
       </c>
       <c r="H8">
-        <v>103.615423604238</v>
+        <v>387.373317</v>
       </c>
       <c r="I8">
-        <v>0.176059780184169</v>
+        <v>0.1992067785341921</v>
       </c>
       <c r="J8">
-        <v>0.176059780184169</v>
+        <v>0.2174427762726615</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.37353053500684</v>
+        <v>5.495057333333333</v>
       </c>
       <c r="N8">
-        <v>5.37353053500684</v>
+        <v>16.485172</v>
       </c>
       <c r="O8">
-        <v>0.8313560794454259</v>
+        <v>0.8161989011161211</v>
       </c>
       <c r="P8">
-        <v>0.8313560794454259</v>
+        <v>0.8403205285996808</v>
       </c>
       <c r="Q8">
-        <v>556.7806426350414</v>
+        <v>709.5461954395028</v>
       </c>
       <c r="R8">
-        <v>556.7806426350414</v>
+        <v>6385.915758955524</v>
       </c>
       <c r="S8">
-        <v>0.1463683686019342</v>
+        <v>0.1625923537344901</v>
       </c>
       <c r="T8">
-        <v>0.1463683686019342</v>
+        <v>0.1827216286976251</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>103.615423604238</v>
+        <v>129.124439</v>
       </c>
       <c r="H9">
-        <v>103.615423604238</v>
+        <v>387.373317</v>
       </c>
       <c r="I9">
-        <v>0.176059780184169</v>
+        <v>0.1992067785341921</v>
       </c>
       <c r="J9">
-        <v>0.176059780184169</v>
+        <v>0.2174427762726615</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.520950252734417</v>
+        <v>0.657666</v>
       </c>
       <c r="N9">
-        <v>0.520950252734417</v>
+        <v>1.972998</v>
       </c>
       <c r="O9">
-        <v>0.08059787822510947</v>
+        <v>0.09768528951377062</v>
       </c>
       <c r="P9">
-        <v>0.08059787822510947</v>
+        <v>0.1005722428790014</v>
       </c>
       <c r="Q9">
-        <v>53.97848111381146</v>
+        <v>84.92075329937401</v>
       </c>
       <c r="R9">
-        <v>53.97848111381146</v>
+        <v>764.2867796943661</v>
       </c>
       <c r="S9">
-        <v>0.01419004472362319</v>
+        <v>0.01945957183421814</v>
       </c>
       <c r="T9">
-        <v>0.01419004472362319</v>
+        <v>0.02186870770757848</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>103.615423604238</v>
+        <v>129.124439</v>
       </c>
       <c r="H10">
-        <v>103.615423604238</v>
+        <v>387.373317</v>
       </c>
       <c r="I10">
-        <v>0.176059780184169</v>
+        <v>0.1992067785341921</v>
       </c>
       <c r="J10">
-        <v>0.176059780184169</v>
+        <v>0.2174427762726615</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5690920035846579</v>
+        <v>0.5797745</v>
       </c>
       <c r="N10">
-        <v>0.5690920035846579</v>
+        <v>1.159549</v>
       </c>
       <c r="O10">
-        <v>0.08804604232946472</v>
+        <v>0.08611580937010824</v>
       </c>
       <c r="P10">
-        <v>0.08804604232946472</v>
+        <v>0.0591072285213179</v>
       </c>
       <c r="Q10">
-        <v>58.96670902120886</v>
+        <v>74.86305705900551</v>
       </c>
       <c r="R10">
-        <v>58.96670902120886</v>
+        <v>449.178342354033</v>
       </c>
       <c r="S10">
-        <v>0.0155013668586116</v>
+        <v>0.01715485296548386</v>
       </c>
       <c r="T10">
-        <v>0.0155013668586116</v>
+        <v>0.01285243986745801</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>129.999067045169</v>
+        <v>136.1162363333333</v>
       </c>
       <c r="H11">
-        <v>129.999067045169</v>
+        <v>408.348709</v>
       </c>
       <c r="I11">
-        <v>0.2208899637909058</v>
+        <v>0.2099933765920337</v>
       </c>
       <c r="J11">
-        <v>0.2208899637909058</v>
+        <v>0.2292168125052277</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.37353053500684</v>
+        <v>5.495057333333333</v>
       </c>
       <c r="N11">
-        <v>5.37353053500684</v>
+        <v>16.485172</v>
       </c>
       <c r="O11">
-        <v>0.8313560794454259</v>
+        <v>0.8161989011161211</v>
       </c>
       <c r="P11">
-        <v>0.8313560794454259</v>
+        <v>0.8403205285996808</v>
       </c>
       <c r="Q11">
-        <v>698.5539562896171</v>
+        <v>747.9665226492162</v>
       </c>
       <c r="R11">
-        <v>698.5539562896171</v>
+        <v>6731.698703842947</v>
       </c>
       <c r="S11">
-        <v>0.1836382142860495</v>
+        <v>0.1713963632160817</v>
       </c>
       <c r="T11">
-        <v>0.1836382142860495</v>
+        <v>0.1926155930483269</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>129.999067045169</v>
+        <v>136.1162363333333</v>
       </c>
       <c r="H12">
-        <v>129.999067045169</v>
+        <v>408.348709</v>
       </c>
       <c r="I12">
-        <v>0.2208899637909058</v>
+        <v>0.2099933765920337</v>
       </c>
       <c r="J12">
-        <v>0.2208899637909058</v>
+        <v>0.2292168125052277</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.520950252734417</v>
+        <v>0.657666</v>
       </c>
       <c r="N12">
-        <v>0.520950252734417</v>
+        <v>1.972998</v>
       </c>
       <c r="O12">
-        <v>0.08059787822510947</v>
+        <v>0.09768528951377062</v>
       </c>
       <c r="P12">
-        <v>0.08059787822510947</v>
+        <v>0.1005722428790014</v>
       </c>
       <c r="Q12">
-        <v>67.7230468324192</v>
+        <v>89.51902068439799</v>
       </c>
       <c r="R12">
-        <v>67.7230468324192</v>
+        <v>805.671186159582</v>
       </c>
       <c r="S12">
-        <v>0.01780326240276827</v>
+        <v>0.02051326378836707</v>
       </c>
       <c r="T12">
-        <v>0.01780326240276827</v>
+        <v>0.02305284893922629</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>129.999067045169</v>
+        <v>136.1162363333333</v>
       </c>
       <c r="H13">
-        <v>129.999067045169</v>
+        <v>408.348709</v>
       </c>
       <c r="I13">
-        <v>0.2208899637909058</v>
+        <v>0.2099933765920337</v>
       </c>
       <c r="J13">
-        <v>0.2208899637909058</v>
+        <v>0.2292168125052277</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5690920035846579</v>
+        <v>0.5797745</v>
       </c>
       <c r="N13">
-        <v>0.5690920035846579</v>
+        <v>1.159549</v>
       </c>
       <c r="O13">
-        <v>0.08804604232946472</v>
+        <v>0.08611580937010824</v>
       </c>
       <c r="P13">
-        <v>0.08804604232946472</v>
+        <v>0.0591072285213179</v>
       </c>
       <c r="Q13">
-        <v>73.9814295288715</v>
+        <v>78.91672286204016</v>
       </c>
       <c r="R13">
-        <v>73.9814295288715</v>
+        <v>473.500337172241</v>
       </c>
       <c r="S13">
-        <v>0.01944848710208802</v>
+        <v>0.01808374958758492</v>
       </c>
       <c r="T13">
-        <v>0.01944848710208802</v>
+        <v>0.01354837051767458</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>154.823624837462</v>
+        <v>163.083542</v>
       </c>
       <c r="H14">
-        <v>154.823624837462</v>
+        <v>326.167084</v>
       </c>
       <c r="I14">
-        <v>0.2630710024437415</v>
+        <v>0.2515971979074048</v>
       </c>
       <c r="J14">
-        <v>0.2630710024437415</v>
+        <v>0.183086116573482</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.37353053500684</v>
+        <v>5.495057333333333</v>
       </c>
       <c r="N14">
-        <v>5.37353053500684</v>
+        <v>16.485172</v>
       </c>
       <c r="O14">
-        <v>0.8313560794454259</v>
+        <v>0.8161989011161211</v>
       </c>
       <c r="P14">
-        <v>0.8313560794454259</v>
+        <v>0.8403205285996808</v>
       </c>
       <c r="Q14">
-        <v>831.9494756045456</v>
+        <v>896.1534134130746</v>
       </c>
       <c r="R14">
-        <v>831.9494756045456</v>
+        <v>5376.920480478449</v>
       </c>
       <c r="S14">
-        <v>0.218705677207407</v>
+        <v>0.205353356455919</v>
       </c>
       <c r="T14">
-        <v>0.218705677207407</v>
+        <v>0.1538510222582912</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>154.823624837462</v>
+        <v>163.083542</v>
       </c>
       <c r="H15">
-        <v>154.823624837462</v>
+        <v>326.167084</v>
       </c>
       <c r="I15">
-        <v>0.2630710024437415</v>
+        <v>0.2515971979074048</v>
       </c>
       <c r="J15">
-        <v>0.2630710024437415</v>
+        <v>0.183086116573482</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.520950252734417</v>
+        <v>0.657666</v>
       </c>
       <c r="N15">
-        <v>0.520950252734417</v>
+        <v>1.972998</v>
       </c>
       <c r="O15">
-        <v>0.08059787822510947</v>
+        <v>0.09768528951377062</v>
       </c>
       <c r="P15">
-        <v>0.08059787822510947</v>
+        <v>0.1005722428790014</v>
       </c>
       <c r="Q15">
-        <v>80.65540648833439</v>
+        <v>107.254500732972</v>
       </c>
       <c r="R15">
-        <v>80.65540648833439</v>
+        <v>643.5270043978321</v>
       </c>
       <c r="S15">
-        <v>0.02120296461951815</v>
+        <v>0.02457734511843828</v>
       </c>
       <c r="T15">
-        <v>0.02120296461951815</v>
+        <v>0.01841338138380139</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>154.823624837462</v>
+        <v>163.083542</v>
       </c>
       <c r="H16">
-        <v>154.823624837462</v>
+        <v>326.167084</v>
       </c>
       <c r="I16">
-        <v>0.2630710024437415</v>
+        <v>0.2515971979074048</v>
       </c>
       <c r="J16">
-        <v>0.2630710024437415</v>
+        <v>0.183086116573482</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5690920035846579</v>
+        <v>0.5797745</v>
       </c>
       <c r="N16">
-        <v>0.5690920035846579</v>
+        <v>1.159549</v>
       </c>
       <c r="O16">
-        <v>0.08804604232946472</v>
+        <v>0.08611580937010824</v>
       </c>
       <c r="P16">
-        <v>0.08804604232946472</v>
+        <v>0.0591072285213179</v>
       </c>
       <c r="Q16">
-        <v>88.10888686099067</v>
+        <v>94.55167902127901</v>
       </c>
       <c r="R16">
-        <v>88.10888686099067</v>
+        <v>378.2067160851161</v>
       </c>
       <c r="S16">
-        <v>0.02316236061681638</v>
+        <v>0.02166649633304746</v>
       </c>
       <c r="T16">
-        <v>0.02316236061681638</v>
+        <v>0.01082171293138945</v>
       </c>
     </row>
   </sheetData>
